--- a/Relatorios_Checklist/historico_checklist.xlsx
+++ b/Relatorios_Checklist/historico_checklist.xlsx
@@ -100,16 +100,16 @@
     <t>OK</t>
   </si>
   <si>
-    <t>Crescimento cumulativo: 208 -&gt; 212</t>
+    <t>Crescimento cumulativo: 260 -&gt; 265</t>
+  </si>
+  <si>
+    <t>Aumentou</t>
+  </si>
+  <si>
+    <t>Reduziu</t>
   </si>
   <si>
     <t>Igual</t>
-  </si>
-  <si>
-    <t>Aumentou</t>
-  </si>
-  <si>
-    <t>Reduziu</t>
   </si>
 </sst>
 </file>
@@ -525,10 +525,10 @@
         <v>28</v>
       </c>
       <c r="G2">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H2">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I2" t="s">
         <v>29</v>
@@ -557,10 +557,10 @@
         <v>28</v>
       </c>
       <c r="G3">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H3">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
@@ -589,13 +589,13 @@
         <v>28</v>
       </c>
       <c r="G4">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H4">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
         <v>27</v>
@@ -621,10 +621,10 @@
         <v>28</v>
       </c>
       <c r="G5">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H5">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I5" t="s">
         <v>29</v>
@@ -653,13 +653,13 @@
         <v>28</v>
       </c>
       <c r="G6">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H6">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
         <v>27</v>
@@ -685,13 +685,13 @@
         <v>28</v>
       </c>
       <c r="G7">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H7">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s">
         <v>27</v>
@@ -717,13 +717,13 @@
         <v>28</v>
       </c>
       <c r="G8">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H8">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
         <v>27</v>
@@ -749,13 +749,13 @@
         <v>28</v>
       </c>
       <c r="G9">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H9">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
         <v>27</v>
@@ -781,13 +781,13 @@
         <v>28</v>
       </c>
       <c r="G10">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H10">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J10" t="s">
         <v>27</v>
@@ -813,13 +813,13 @@
         <v>28</v>
       </c>
       <c r="G11">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H11">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J11" t="s">
         <v>27</v>
@@ -845,13 +845,13 @@
         <v>28</v>
       </c>
       <c r="G12">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H12">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J12" t="s">
         <v>27</v>
@@ -877,10 +877,10 @@
         <v>28</v>
       </c>
       <c r="G13">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H13">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I13" t="s">
         <v>30</v>
@@ -909,13 +909,13 @@
         <v>28</v>
       </c>
       <c r="G14">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H14">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J14" t="s">
         <v>27</v>
@@ -941,13 +941,13 @@
         <v>28</v>
       </c>
       <c r="G15">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H15">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J15" t="s">
         <v>27</v>
@@ -973,13 +973,13 @@
         <v>28</v>
       </c>
       <c r="G16">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H16">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J16" t="s">
         <v>27</v>
@@ -1005,13 +1005,13 @@
         <v>28</v>
       </c>
       <c r="G17">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H17">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J17" t="s">
         <v>27</v>
@@ -1037,10 +1037,10 @@
         <v>28</v>
       </c>
       <c r="G18">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H18">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I18" t="s">
         <v>30</v>
@@ -1069,13 +1069,13 @@
         <v>28</v>
       </c>
       <c r="G19">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H19">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J19" t="s">
         <v>27</v>
@@ -1101,13 +1101,13 @@
         <v>28</v>
       </c>
       <c r="G20">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H20">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J20" t="s">
         <v>27</v>
@@ -1133,13 +1133,13 @@
         <v>28</v>
       </c>
       <c r="G21">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H21">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J21" t="s">
         <v>27</v>
@@ -1165,13 +1165,13 @@
         <v>28</v>
       </c>
       <c r="G22">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H22">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J22" t="s">
         <v>27</v>
@@ -1197,13 +1197,13 @@
         <v>28</v>
       </c>
       <c r="G23">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H23">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J23" t="s">
         <v>27</v>
@@ -1229,13 +1229,13 @@
         <v>28</v>
       </c>
       <c r="G24">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H24">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J24" t="s">
         <v>27</v>
@@ -1261,10 +1261,10 @@
         <v>28</v>
       </c>
       <c r="G25">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H25">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I25" t="s">
         <v>31</v>
@@ -1293,13 +1293,13 @@
         <v>28</v>
       </c>
       <c r="G26">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H26">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J26" t="s">
         <v>27</v>
@@ -1325,13 +1325,13 @@
         <v>28</v>
       </c>
       <c r="G27">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H27">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J27" t="s">
         <v>27</v>
@@ -1357,10 +1357,10 @@
         <v>28</v>
       </c>
       <c r="G28">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H28">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I28" t="s">
         <v>30</v>
@@ -1389,10 +1389,10 @@
         <v>28</v>
       </c>
       <c r="G29">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H29">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I29" t="s">
         <v>30</v>
@@ -1421,13 +1421,13 @@
         <v>28</v>
       </c>
       <c r="G30">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H30">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J30" t="s">
         <v>27</v>
@@ -1453,13 +1453,13 @@
         <v>28</v>
       </c>
       <c r="G31">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H31">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J31" t="s">
         <v>27</v>
@@ -1485,13 +1485,13 @@
         <v>28</v>
       </c>
       <c r="G32">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H32">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J32" t="s">
         <v>27</v>
@@ -1517,10 +1517,10 @@
         <v>28</v>
       </c>
       <c r="G33">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H33">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I33" t="s">
         <v>30</v>
@@ -1549,13 +1549,13 @@
         <v>28</v>
       </c>
       <c r="G34">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H34">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J34" t="s">
         <v>27</v>
@@ -1581,13 +1581,13 @@
         <v>28</v>
       </c>
       <c r="G35">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H35">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J35" t="s">
         <v>27</v>
@@ -1613,10 +1613,10 @@
         <v>28</v>
       </c>
       <c r="G36">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H36">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I36" t="s">
         <v>30</v>
@@ -1645,13 +1645,13 @@
         <v>28</v>
       </c>
       <c r="G37">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="H37">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="I37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J37" t="s">
         <v>27</v>
